--- a/examples/ex003.SplineFit.xlsx
+++ b/examples/ex003.SplineFit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12035D6-1987-4C7E-980B-150FC13E21D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F0E45-27E1-4EFC-B7EF-95A70AF2BB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23400" yWindow="480" windowWidth="21300" windowHeight="17400" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
+    <workbookView xWindow="-34065" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Spline" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3127,16 +3129,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="crv_fit_spline_1D"/>
-      <definedName name="getUFVersion"/>
+      <definedName name="unf_Version"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3443,7 +3443,7 @@
   <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,8 +3463,8 @@
         <v>42</v>
       </c>
       <c r="G1" t="str">
-        <f>[1]!getUFVersion()</f>
-        <v>7.11</v>
+        <f>[1]!unf_Version()</f>
+        <v>7.23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/examples/ex003.SplineFit.xlsx
+++ b/examples/ex003.SplineFit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F0E45-27E1-4EFC-B7EF-95A70AF2BB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAC6EA-65FB-4B28-820A-3C03619D7DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34065" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
+    <workbookView xWindow="-34020" yWindow="3300" windowWidth="28410" windowHeight="15210" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Spline" sheetId="2" r:id="rId1"/>

--- a/examples/ex003.SplineFit.xlsx
+++ b/examples/ex003.SplineFit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAC6EA-65FB-4B28-820A-3C03619D7DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32261D-8376-4D20-BD00-970CC8E2CFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34020" yWindow="3300" windowWidth="28410" windowHeight="15210" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Spline" sheetId="2" r:id="rId1"/>
@@ -1417,307 +1417,307 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>191.31902386428069</c:v>
+                  <c:v>191.306859824485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.31364534442395</c:v>
+                  <c:v>191.3062947967174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191.30921449935488</c:v>
+                  <c:v>191.30587710239263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191.3056699485029</c:v>
+                  <c:v>191.30560084604778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191.30295031129734</c:v>
+                  <c:v>191.30546013221999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191.30099420716761</c:v>
+                  <c:v>191.3054490654464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191.2997402555431</c:v>
+                  <c:v>191.30556175026408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.29912707585316</c:v>
+                  <c:v>191.30579229121014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191.29909328752723</c:v>
+                  <c:v>191.30613479282172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191.29957750999466</c:v>
+                  <c:v>191.30658335963594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>191.30051836268481</c:v>
+                  <c:v>191.30713209618992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>191.30185446502711</c:v>
+                  <c:v>191.30777510702075</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>191.30352443645091</c:v>
+                  <c:v>191.30850649666556</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>191.30546689638561</c:v>
+                  <c:v>191.30932036966144</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>191.30762046426057</c:v>
+                  <c:v>191.31021083054554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191.30992375950521</c:v>
+                  <c:v>191.31117198385496</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>191.31231540154886</c:v>
+                  <c:v>191.31219793412683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>191.31473400982097</c:v>
+                  <c:v>191.31328278589825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>191.31711820375085</c:v>
+                  <c:v>191.31442064370634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>191.31940660276794</c:v>
+                  <c:v>191.31560561208821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>191.32153782630161</c:v>
+                  <c:v>191.31683179558098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>191.32346316537175</c:v>
+                  <c:v>191.31809329872178</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>191.32518459736031</c:v>
+                  <c:v>191.31938422604767</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>191.32671677123977</c:v>
+                  <c:v>191.32069868209584</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>191.32807433598262</c:v>
+                  <c:v>191.32203077140335</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>191.32927194056134</c:v>
+                  <c:v>191.32337459850734</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>191.33032423394837</c:v>
+                  <c:v>191.32472426794493</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>191.33124586511624</c:v>
+                  <c:v>191.32607388425322</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>191.33205148303739</c:v>
+                  <c:v>191.32741755196935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>191.33275573668431</c:v>
+                  <c:v>191.32874937563039</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>191.33337327502946</c:v>
+                  <c:v>191.3300634597735</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191.33391874704535</c:v>
+                  <c:v>191.33135390893577</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>191.3344068017044</c:v>
+                  <c:v>191.33261482765431</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>191.33485208797913</c:v>
+                  <c:v>191.33384032046627</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>191.33526925484199</c:v>
+                  <c:v>191.33502488183873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>191.33567295126551</c:v>
+                  <c:v>191.33616753917576</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>191.33607782622209</c:v>
+                  <c:v>191.3372702443566</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>191.33649852868427</c:v>
+                  <c:v>191.33833499800184</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>191.33694970762448</c:v>
+                  <c:v>191.33936380073203</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>191.33744601201522</c:v>
+                  <c:v>191.3403586531677</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>191.33800209082898</c:v>
+                  <c:v>191.34132155592945</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>191.33862931255689</c:v>
+                  <c:v>191.34225450963785</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>191.33932592376505</c:v>
+                  <c:v>191.34315951491345</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>191.34008689053815</c:v>
+                  <c:v>191.34403857237677</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>191.34090717896095</c:v>
+                  <c:v>191.34489368264846</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>191.34178175511818</c:v>
+                  <c:v>191.34572684634898</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>191.34270558509456</c:v>
+                  <c:v>191.34654006409897</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>191.34367363497489</c:v>
+                  <c:v>191.347335336519</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>191.34468087084383</c:v>
+                  <c:v>191.34811466422957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>191.3457222587862</c:v>
+                  <c:v>191.34888004785125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>191.34679276488666</c:v>
+                  <c:v>191.34963348800466</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>191.34788735523</c:v>
+                  <c:v>191.35037698531031</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>191.34900099590095</c:v>
+                  <c:v>191.35111254038878</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>191.35012865298424</c:v>
+                  <c:v>191.35184215386064</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>191.35126529256462</c:v>
+                  <c:v>191.35256782634644</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>191.35240588072682</c:v>
+                  <c:v>191.35329155846674</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>191.35354538355557</c:v>
+                  <c:v>191.3540153508421</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>191.3546787671356</c:v>
+                  <c:v>191.3547412040931</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>191.35580099755168</c:v>
+                  <c:v>191.35547111884031</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>191.35690704088856</c:v>
+                  <c:v>191.35620709570426</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>191.35799186323092</c:v>
+                  <c:v>191.35695113530554</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>191.35905142422331</c:v>
+                  <c:v>191.35770523826466</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>191.36008565774927</c:v>
+                  <c:v>191.35847140520227</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>191.36109549125214</c:v>
+                  <c:v>191.35925163673886</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>191.36208185217521</c:v>
+                  <c:v>191.36004793349503</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>191.36304566796181</c:v>
+                  <c:v>191.36086229609131</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>191.36398786605525</c:v>
+                  <c:v>191.36169672514831</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>191.36490937389891</c:v>
+                  <c:v>191.3625531996459</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>191.36581111893602</c:v>
+                  <c:v>191.36343240012548</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191.36669402860997</c:v>
+                  <c:v>191.3643329945487</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>191.36755903036405</c:v>
+                  <c:v>191.36525347775211</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>191.36840705164158</c:v>
+                  <c:v>191.36619234457214</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>191.36923901988587</c:v>
+                  <c:v>191.36714808984536</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>191.37005586254028</c:v>
+                  <c:v>191.36811920840827</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>191.3708585070481</c:v>
+                  <c:v>191.36910419509738</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>191.37164788085263</c:v>
+                  <c:v>191.37010154474916</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191.37242491139725</c:v>
+                  <c:v>191.3711097522002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>191.37319052612523</c:v>
+                  <c:v>191.37212731228692</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>191.3739456524799</c:v>
+                  <c:v>191.3731527198459</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>191.3746912179046</c:v>
+                  <c:v>191.37418446971364</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>191.37542814984263</c:v>
+                  <c:v>191.37522105672662</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>191.37615839163439</c:v>
+                  <c:v>191.37626097572135</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>191.37688795020867</c:v>
+                  <c:v>191.37730272153439</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>191.37762384839124</c:v>
+                  <c:v>191.3783447890022</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>191.37837310900798</c:v>
+                  <c:v>191.37938567296129</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>191.37914275488473</c:v>
+                  <c:v>191.38042386824822</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>191.37993980884727</c:v>
+                  <c:v>191.38145786969946</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>191.38077129372149</c:v>
+                  <c:v>191.38248617215152</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>191.3816442323332</c:v>
+                  <c:v>191.3835072704409</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>191.38256564750824</c:v>
+                  <c:v>191.38451965940416</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>191.38354256207242</c:v>
+                  <c:v>191.38552183387776</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>191.38458199885162</c:v>
+                  <c:v>191.38651228869824</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>191.38569098067163</c:v>
+                  <c:v>191.3874895187021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>191.38687653035831</c:v>
+                  <c:v>191.38845201872584</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>191.38814567073749</c:v>
+                  <c:v>191.389398283606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>191.38950542463499</c:v>
+                  <c:v>191.39032680817905</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>191.39096281487664</c:v>
+                  <c:v>191.39123608728153</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>191.3925248642883</c:v>
+                  <c:v>191.39212461574994</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>191.3941985956958</c:v>
+                  <c:v>191.3929908884208</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>191.39599103192495</c:v>
+                  <c:v>191.3938334001306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>191.39790919580159</c:v>
+                  <c:v>191.39465064571587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3442,20 +3442,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
@@ -3464,20 +3464,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -3501,31 +3501,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3557,55 +3557,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -3646,46 +3646,46 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -3694,7 +3694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="E41" s="15">
         <f t="array" ref="E41:E141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,E38,$A$41:$A$141)</f>
-        <v>191.31902386428069</v>
+        <v>191.306859824485</v>
       </c>
       <c r="F41" s="15">
         <f t="array" ref="F41:F141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,F38,$A$41:$A$141,D41:D141,I41:I42,J41:J42,K41:K42)</f>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.01</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="15">
-        <v>191.31364534442395</v>
+        <v>191.3062947967174</v>
       </c>
       <c r="F42" s="15">
         <v>191.28936466521</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5.0199999999999996</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="15">
-        <v>191.30921449935488</v>
+        <v>191.30587710239263</v>
       </c>
       <c r="F43" s="15">
         <v>191.29131649985069</v>
@@ -3839,7 +3839,7 @@
         <v>191.30921449935488</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.03</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="15">
-        <v>191.3056699485029</v>
+        <v>191.30560084604778</v>
       </c>
       <c r="F44" s="15">
         <v>191.29322103236319</v>
@@ -3862,7 +3862,7 @@
         <v>191.3056699485029</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5.04</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="15">
-        <v>191.30295031129734</v>
+        <v>191.30546013221999</v>
       </c>
       <c r="F45" s="15">
         <v>191.29507928374076</v>
@@ -3885,7 +3885,7 @@
         <v>191.30295031129734</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.05</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="15">
-        <v>191.30099420716761</v>
+        <v>191.3054490654464</v>
       </c>
       <c r="F46" s="15">
         <v>191.2968922749767</v>
@@ -3908,7 +3908,7 @@
         <v>191.30099420716761</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.0599999999999996</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="15">
-        <v>191.2997402555431</v>
+        <v>191.30556175026408</v>
       </c>
       <c r="F47" s="15">
         <v>191.29866102706421</v>
@@ -3931,7 +3931,7 @@
         <v>191.2997402555431</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.07</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="15">
-        <v>191.29912707585316</v>
+        <v>191.30579229121014</v>
       </c>
       <c r="F48" s="15">
         <v>191.30038656099657</v>
@@ -3954,7 +3954,7 @@
         <v>191.29912707585316</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5.08</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="15">
-        <v>191.29909328752723</v>
+        <v>191.30613479282172</v>
       </c>
       <c r="F49" s="15">
         <v>191.30206989776704</v>
@@ -3977,7 +3977,7 @@
         <v>191.29909328752723</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5.09</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="15">
-        <v>191.29957750999466</v>
+        <v>191.30658335963594</v>
       </c>
       <c r="F50" s="15">
         <v>191.30371205836889</v>
@@ -4000,7 +4000,7 @@
         <v>191.29957750999466</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5.0999999999999996</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="15">
-        <v>191.30051836268481</v>
+        <v>191.30713209618992</v>
       </c>
       <c r="F51" s="15">
         <v>191.30531406379535</v>
@@ -4023,7 +4023,7 @@
         <v>191.30051836268481</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5.1100000000000003</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="15">
-        <v>191.30185446502711</v>
+        <v>191.30777510702075</v>
       </c>
       <c r="F52" s="15">
         <v>191.30687693503967</v>
@@ -4046,7 +4046,7 @@
         <v>191.30185446502711</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.12</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="15">
-        <v>191.30352443645091</v>
+        <v>191.30850649666556</v>
       </c>
       <c r="F53" s="15">
         <v>191.30840169309513</v>
@@ -4069,7 +4069,7 @@
         <v>191.30352443645091</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.13</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="15">
-        <v>191.30546689638561</v>
+        <v>191.30932036966144</v>
       </c>
       <c r="F54" s="15">
         <v>191.30988935895499</v>
@@ -4092,7 +4092,7 @@
         <v>191.30546689638561</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.14</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="15">
-        <v>191.30762046426057</v>
+        <v>191.31021083054554</v>
       </c>
       <c r="F55" s="15">
         <v>191.3113409536125</v>
@@ -4115,7 +4115,7 @@
         <v>191.30762046426057</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.15</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="15">
-        <v>191.30992375950521</v>
+        <v>191.31117198385496</v>
       </c>
       <c r="F56" s="15">
         <v>191.3127574980609</v>
@@ -4138,7 +4138,7 @@
         <v>191.30992375950521</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.16</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="15">
-        <v>191.31231540154886</v>
+        <v>191.31219793412683</v>
       </c>
       <c r="F57" s="15">
         <v>191.31414001329347</v>
@@ -4161,7 +4161,7 @@
         <v>191.31231540154886</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.17</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="15">
-        <v>191.31473400982097</v>
+        <v>191.31328278589825</v>
       </c>
       <c r="F58" s="15">
         <v>191.31548952030343</v>
@@ -4184,7 +4184,7 @@
         <v>191.31473400982097</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.18</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="15">
-        <v>191.31711820375085</v>
+        <v>191.31442064370634</v>
       </c>
       <c r="F59" s="15">
         <v>191.31680704008409</v>
@@ -4207,7 +4207,7 @@
         <v>191.31711820375085</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.19</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="15">
-        <v>191.31940660276794</v>
+        <v>191.31560561208821</v>
       </c>
       <c r="F60" s="15">
         <v>191.31809359362865</v>
@@ -4230,7 +4230,7 @@
         <v>191.31940660276794</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="15">
-        <v>191.32153782630161</v>
+        <v>191.31683179558098</v>
       </c>
       <c r="F61" s="15">
         <v>191.3193502019304</v>
@@ -4253,7 +4253,7 @@
         <v>191.32153782630161</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5.21</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="15">
-        <v>191.32346316537175</v>
+        <v>191.31809329872178</v>
       </c>
       <c r="F62" s="15">
         <v>191.3205778859826</v>
@@ -4276,7 +4276,7 @@
         <v>191.32346316537175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5.22</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="15">
-        <v>191.32518459736031</v>
+        <v>191.31938422604767</v>
       </c>
       <c r="F63" s="15">
         <v>191.32177766677847</v>
@@ -4299,7 +4299,7 @@
         <v>191.32518459736031</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5.23</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="15">
-        <v>191.32671677123977</v>
+        <v>191.32069868209584</v>
       </c>
       <c r="F64" s="15">
         <v>191.32295056531132</v>
@@ -4322,7 +4322,7 @@
         <v>191.32671677123977</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5.24</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="15">
-        <v>191.32807433598262</v>
+        <v>191.32203077140335</v>
       </c>
       <c r="F65" s="15">
         <v>191.32409760257437</v>
@@ -4345,7 +4345,7 @@
         <v>191.32807433598262</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5.25</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="15">
-        <v>191.32927194056134</v>
+        <v>191.32337459850734</v>
       </c>
       <c r="F66" s="15">
         <v>191.3252197995609</v>
@@ -4368,7 +4368,7 @@
         <v>191.32927194056134</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5.26</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="15">
-        <v>191.33032423394837</v>
+        <v>191.32472426794493</v>
       </c>
       <c r="F67" s="15">
         <v>191.32631817726411</v>
@@ -4391,7 +4391,7 @@
         <v>191.33032423394837</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5.27</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="15">
-        <v>191.33124586511624</v>
+        <v>191.32607388425322</v>
       </c>
       <c r="F68" s="15">
         <v>191.32739375667734</v>
@@ -4414,7 +4414,7 @@
         <v>191.33124586511624</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5.28</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="15">
-        <v>191.33205148303739</v>
+        <v>191.32741755196935</v>
       </c>
       <c r="F69" s="15">
         <v>191.32844755879378</v>
@@ -4437,7 +4437,7 @@
         <v>191.33205148303739</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5.29</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="15">
-        <v>191.33275573668431</v>
+        <v>191.32874937563039</v>
       </c>
       <c r="F70" s="15">
         <v>191.32948060460672</v>
@@ -4460,7 +4460,7 @@
         <v>191.33275573668431</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5.3</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="15">
-        <v>191.33337327502946</v>
+        <v>191.3300634597735</v>
       </c>
       <c r="F71" s="15">
         <v>191.3304939151094</v>
@@ -4483,7 +4483,7 @@
         <v>191.33337327502946</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5.31</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="15">
-        <v>191.33391874704535</v>
+        <v>191.33135390893577</v>
       </c>
       <c r="F72" s="15">
         <v>191.33148851129508</v>
@@ -4506,7 +4506,7 @@
         <v>191.33391874704535</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5.32</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="15">
-        <v>191.3344068017044</v>
+        <v>191.33261482765431</v>
       </c>
       <c r="F73" s="15">
         <v>191.33246541415701</v>
@@ -4529,7 +4529,7 @@
         <v>191.3344068017044</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5.33</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="15">
-        <v>191.33485208797913</v>
+        <v>191.33384032046627</v>
       </c>
       <c r="F74" s="15">
         <v>191.33342564468848</v>
@@ -4552,7 +4552,7 @@
         <v>191.33485208797913</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5.34</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="15">
-        <v>191.33526925484199</v>
+        <v>191.33502488183873</v>
       </c>
       <c r="F75" s="15">
         <v>191.3343702238827</v>
@@ -4575,7 +4575,7 @@
         <v>191.33526925484199</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5.35</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="15">
-        <v>191.33567295126551</v>
+        <v>191.33616753917576</v>
       </c>
       <c r="F76" s="15">
         <v>191.33530017273296</v>
@@ -4598,7 +4598,7 @@
         <v>191.33567295126551</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5.36</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="15">
-        <v>191.33607782622209</v>
+        <v>191.3372702443566</v>
       </c>
       <c r="F77" s="15">
         <v>191.33621651223251</v>
@@ -4621,7 +4621,7 @@
         <v>191.33607782622209</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5.37</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="15">
-        <v>191.33649852868427</v>
+        <v>191.33833499800184</v>
       </c>
       <c r="F78" s="15">
         <v>191.33712026337457</v>
@@ -4644,7 +4644,7 @@
         <v>191.33649852868427</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5.38</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="15">
-        <v>191.33694970762448</v>
+        <v>191.33936380073203</v>
       </c>
       <c r="F79" s="15">
         <v>191.33801244715247</v>
@@ -4667,7 +4667,7 @@
         <v>191.33694970762448</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5.39</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="15">
-        <v>191.33744601201522</v>
+        <v>191.3403586531677</v>
       </c>
       <c r="F80" s="15">
         <v>191.3388940845594</v>
@@ -4690,7 +4690,7 @@
         <v>191.33744601201522</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5.4</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="15">
-        <v>191.33800209082898</v>
+        <v>191.34132155592945</v>
       </c>
       <c r="F81" s="15">
         <v>191.33976619658864</v>
@@ -4713,7 +4713,7 @@
         <v>191.33800209082898</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5.41</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="15">
-        <v>191.33862931255689</v>
+        <v>191.34225450963785</v>
       </c>
       <c r="F82" s="15">
         <v>191.34062980423343</v>
@@ -4736,7 +4736,7 @@
         <v>191.33862931255689</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5.42</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="15">
-        <v>191.33932592376505</v>
+        <v>191.34315951491345</v>
       </c>
       <c r="F83" s="15">
         <v>191.34148592848706</v>
@@ -4759,7 +4759,7 @@
         <v>191.33932592376505</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5.43</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="15">
-        <v>191.34008689053815</v>
+        <v>191.34403857237677</v>
       </c>
       <c r="F84" s="15">
         <v>191.34233559034277</v>
@@ -4782,7 +4782,7 @@
         <v>191.34008689053815</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5.44</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="15">
-        <v>191.34090717896095</v>
+        <v>191.34489368264846</v>
       </c>
       <c r="F85" s="15">
         <v>191.3431798107938</v>
@@ -4805,7 +4805,7 @@
         <v>191.34090717896095</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5.45</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="15">
-        <v>191.34178175511818</v>
+        <v>191.34572684634898</v>
       </c>
       <c r="F86" s="15">
         <v>191.34401961083344</v>
@@ -4828,7 +4828,7 @@
         <v>191.34178175511818</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5.46</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="15">
-        <v>191.34270558509456</v>
+        <v>191.34654006409897</v>
       </c>
       <c r="F87" s="15">
         <v>191.34485601145494</v>
@@ -4851,7 +4851,7 @@
         <v>191.34270558509456</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5.47</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="15">
-        <v>191.34367363497489</v>
+        <v>191.347335336519</v>
       </c>
       <c r="F88" s="15">
         <v>191.34569003365149</v>
@@ -4874,7 +4874,7 @@
         <v>191.34367363497489</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5.48</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="15">
-        <v>191.34468087084383</v>
+        <v>191.34811466422957</v>
       </c>
       <c r="F89" s="15">
         <v>191.34652269841644</v>
@@ -4897,7 +4897,7 @@
         <v>191.34468087084383</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5.49</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="15">
-        <v>191.3457222587862</v>
+        <v>191.34888004785125</v>
       </c>
       <c r="F90" s="15">
         <v>191.347355026743</v>
@@ -4920,7 +4920,7 @@
         <v>191.3457222587862</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>191.34679276488666</v>
+        <v>191.34963348800466</v>
       </c>
       <c r="F91" s="15">
         <v>191.34818803962443</v>
@@ -4943,7 +4943,7 @@
         <v>191.34679276488666</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5.51</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="15">
-        <v>191.34788735523</v>
+        <v>191.35037698531031</v>
       </c>
       <c r="F92" s="15">
         <v>191.34902275805399</v>
@@ -4966,7 +4966,7 @@
         <v>191.34788735523</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5.52</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="15">
-        <v>191.34900099590095</v>
+        <v>191.35111254038878</v>
       </c>
       <c r="F93" s="15">
         <v>191.34986020302495</v>
@@ -4989,7 +4989,7 @@
         <v>191.34900099590095</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5.53</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="15">
-        <v>191.35012865298424</v>
+        <v>191.35184215386064</v>
       </c>
       <c r="F94" s="15">
         <v>191.35070139553054</v>
@@ -5012,7 +5012,7 @@
         <v>191.35012865298424</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5.54</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="15">
-        <v>191.35126529256462</v>
+        <v>191.35256782634644</v>
       </c>
       <c r="F95" s="15">
         <v>191.35154735656403</v>
@@ -5035,7 +5035,7 @@
         <v>191.35126529256462</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5.55</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="15">
-        <v>191.35240588072682</v>
+        <v>191.35329155846674</v>
       </c>
       <c r="F96" s="15">
         <v>191.35239910711866</v>
@@ -5058,7 +5058,7 @@
         <v>191.35240588072682</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5.56</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="15">
-        <v>191.35354538355557</v>
+        <v>191.3540153508421</v>
       </c>
       <c r="F97" s="15">
         <v>191.35325766818769</v>
@@ -5081,7 +5081,7 @@
         <v>191.35354538355557</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5.57</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="15">
-        <v>191.3546787671356</v>
+        <v>191.3547412040931</v>
       </c>
       <c r="F98" s="15">
         <v>191.35412406076443</v>
@@ -5104,7 +5104,7 @@
         <v>191.3546787671356</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5.58</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="15">
-        <v>191.35580099755168</v>
+        <v>191.35547111884031</v>
       </c>
       <c r="F99" s="15">
         <v>191.35499930584206</v>
@@ -5127,7 +5127,7 @@
         <v>191.35580099755168</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5.59</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="15">
-        <v>191.35690704088856</v>
+        <v>191.35620709570426</v>
       </c>
       <c r="F100" s="15">
         <v>191.35588442441389</v>
@@ -5150,7 +5150,7 @@
         <v>191.35690704088856</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5.6</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="15">
-        <v>191.35799186323092</v>
+        <v>191.35695113530554</v>
       </c>
       <c r="F101" s="15">
         <v>191.35678043747313</v>
@@ -5173,7 +5173,7 @@
         <v>191.35799186323092</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5.61</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="15">
-        <v>191.35905142422331</v>
+        <v>191.35770523826466</v>
       </c>
       <c r="F102" s="15">
         <v>191.35768836601309</v>
@@ -5196,7 +5196,7 @@
         <v>191.35905142422331</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5.62</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="15">
-        <v>191.36008565774927</v>
+        <v>191.35847140520227</v>
       </c>
       <c r="F103" s="15">
         <v>191.35860923102697</v>
@@ -5219,7 +5219,7 @@
         <v>191.36008565774927</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5.63</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="15">
-        <v>191.36109549125214</v>
+        <v>191.35925163673886</v>
       </c>
       <c r="F104" s="15">
         <v>191.35954405350807</v>
@@ -5242,7 +5242,7 @@
         <v>191.36109549125214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5.64</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="15">
-        <v>191.36208185217521</v>
+        <v>191.36004793349503</v>
       </c>
       <c r="F105" s="15">
         <v>191.36049385444963</v>
@@ -5265,7 +5265,7 @@
         <v>191.36208185217521</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5.65</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="15">
-        <v>191.36304566796181</v>
+        <v>191.36086229609131</v>
       </c>
       <c r="F106" s="15">
         <v>191.36145965484491</v>
@@ -5288,7 +5288,7 @@
         <v>191.36304566796181</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5.66</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="15">
-        <v>191.36398786605525</v>
+        <v>191.36169672514831</v>
       </c>
       <c r="F107" s="15">
         <v>191.36244247568717</v>
@@ -5311,7 +5311,7 @@
         <v>191.36398786605525</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5.67</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="15">
-        <v>191.36490937389891</v>
+        <v>191.3625531996459</v>
       </c>
       <c r="F108" s="15">
         <v>191.36344333796964</v>
@@ -5334,7 +5334,7 @@
         <v>191.36490937389891</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5.68</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="15">
-        <v>191.36581111893602</v>
+        <v>191.36343240012548</v>
       </c>
       <c r="F109" s="15">
         <v>191.3644632626856</v>
@@ -5357,7 +5357,7 @@
         <v>191.36581111893602</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5.69</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="15">
-        <v>191.36669402860997</v>
+        <v>191.3643329945487</v>
       </c>
       <c r="F110" s="15">
         <v>191.36550327082833</v>
@@ -5380,7 +5380,7 @@
         <v>191.36669402860997</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5.7</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="15">
-        <v>191.36755903036405</v>
+        <v>191.36525347775211</v>
       </c>
       <c r="F111" s="15">
         <v>191.36656438339102</v>
@@ -5403,7 +5403,7 @@
         <v>191.36755903036405</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5.71</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="15">
-        <v>191.36840705164158</v>
+        <v>191.36619234457214</v>
       </c>
       <c r="F112" s="15">
         <v>191.36764762136698</v>
@@ -5426,7 +5426,7 @@
         <v>191.36840705164158</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5.72</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="15">
-        <v>191.36923901988587</v>
+        <v>191.36714808984536</v>
       </c>
       <c r="F113" s="15">
         <v>191.36875400574948</v>
@@ -5449,7 +5449,7 @@
         <v>191.36923901988587</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5.73</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="15">
-        <v>191.37005586254028</v>
+        <v>191.36811920840827</v>
       </c>
       <c r="F114" s="15">
         <v>191.36988455753172</v>
@@ -5472,7 +5472,7 @@
         <v>191.37005586254028</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5.74</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="15">
-        <v>191.3708585070481</v>
+        <v>191.36910419509738</v>
       </c>
       <c r="F115" s="15">
         <v>191.371040297707</v>
@@ -5495,7 +5495,7 @@
         <v>191.3708585070481</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.75</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="15">
-        <v>191.37164788085263</v>
+        <v>191.37010154474916</v>
       </c>
       <c r="F116" s="15">
         <v>191.37222224726852</v>
@@ -5518,7 +5518,7 @@
         <v>191.37164788085263</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5.76</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="15">
-        <v>191.37242491139725</v>
+        <v>191.3711097522002</v>
       </c>
       <c r="F117" s="15">
         <v>191.37343142720962</v>
@@ -5541,7 +5541,7 @@
         <v>191.37242491139725</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5.77</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="15">
-        <v>191.37319052612523</v>
+        <v>191.37212731228692</v>
       </c>
       <c r="F118" s="15">
         <v>191.37466885852351</v>
@@ -5564,7 +5564,7 @@
         <v>191.37319052612523</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5.78</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="15">
-        <v>191.3739456524799</v>
+        <v>191.3731527198459</v>
       </c>
       <c r="F119" s="15">
         <v>191.37593556220344</v>
@@ -5587,7 +5587,7 @@
         <v>191.3739456524799</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5.79</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="15">
-        <v>191.3746912179046</v>
+        <v>191.37418446971364</v>
       </c>
       <c r="F120" s="15">
         <v>191.37723255924266</v>
@@ -5610,7 +5610,7 @@
         <v>191.3746912179046</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5.8</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="15">
-        <v>191.37542814984263</v>
+        <v>191.37522105672662</v>
       </c>
       <c r="F121" s="15">
         <v>191.37856087063446</v>
@@ -5634,7 +5634,7 @@
         <v>191.37542814984263</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5.81</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="15">
-        <v>191.37615839163439</v>
+        <v>191.37626097572135</v>
       </c>
       <c r="F122" s="15">
         <v>191.37992151737205</v>
@@ -5658,7 +5658,7 @@
         <v>191.37615839163439</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5.82</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="15">
-        <v>191.37688795020867</v>
+        <v>191.37730272153439</v>
       </c>
       <c r="F123" s="15">
         <v>191.38131552044877</v>
@@ -5682,7 +5682,7 @@
         <v>191.37688795020867</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5.83</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="15">
-        <v>191.37762384839124</v>
+        <v>191.3783447890022</v>
       </c>
       <c r="F124" s="15">
         <v>191.38274390085778</v>
@@ -5706,7 +5706,7 @@
         <v>191.37762384839124</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5.84</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="15">
-        <v>191.37837310900798</v>
+        <v>191.37938567296129</v>
       </c>
       <c r="F125" s="15">
         <v>191.38420767959238</v>
@@ -5730,7 +5730,7 @@
         <v>191.37837310900798</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5.85</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="15">
-        <v>191.37914275488473</v>
+        <v>191.38042386824822</v>
       </c>
       <c r="F126" s="15">
         <v>191.38570787764584</v>
@@ -5754,7 +5754,7 @@
         <v>191.37914275488473</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5.86</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="15">
-        <v>191.37993980884727</v>
+        <v>191.38145786969946</v>
       </c>
       <c r="F127" s="15">
         <v>191.38724551601138</v>
@@ -5778,7 +5778,7 @@
         <v>191.37993980884727</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5.87</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="15">
-        <v>191.38077129372149</v>
+        <v>191.38248617215152</v>
       </c>
       <c r="F128" s="15">
         <v>191.3888216156823</v>
@@ -5802,7 +5802,7 @@
         <v>191.38077129372149</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5.88</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="15">
-        <v>191.3816442323332</v>
+        <v>191.3835072704409</v>
       </c>
       <c r="F129" s="15">
         <v>191.39043719765181</v>
@@ -5826,7 +5826,7 @@
         <v>191.3816442323332</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5.89</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="15">
-        <v>191.38256564750824</v>
+        <v>191.38451965940416</v>
       </c>
       <c r="F130" s="15">
         <v>191.39209328291321</v>
@@ -5850,7 +5850,7 @@
         <v>191.38256564750824</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5.9</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="15">
-        <v>191.38354256207242</v>
+        <v>191.38552183387776</v>
       </c>
       <c r="F131" s="15">
         <v>191.39379089245972</v>
@@ -5874,7 +5874,7 @@
         <v>191.38354256207242</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5.91</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="15">
-        <v>191.38458199885162</v>
+        <v>191.38651228869824</v>
       </c>
       <c r="F132" s="15">
         <v>191.39553104728461</v>
@@ -5898,7 +5898,7 @@
         <v>191.38458199885162</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5.92</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="15">
-        <v>191.38569098067163</v>
+        <v>191.3874895187021</v>
       </c>
       <c r="F133" s="15">
         <v>191.39731476838114</v>
@@ -5922,7 +5922,7 @@
         <v>191.38569098067163</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5.93</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="15">
-        <v>191.38687653035831</v>
+        <v>191.38845201872584</v>
       </c>
       <c r="F134" s="15">
         <v>191.39914307674258</v>
@@ -5946,7 +5946,7 @@
         <v>191.38687653035831</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5.94</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="15">
-        <v>191.38814567073749</v>
+        <v>191.389398283606</v>
       </c>
       <c r="F135" s="15">
         <v>191.40101699336216</v>
@@ -5970,7 +5970,7 @@
         <v>191.38814567073749</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5.95</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="15">
-        <v>191.38950542463499</v>
+        <v>191.39032680817905</v>
       </c>
       <c r="F136" s="15">
         <v>191.40293753923314</v>
@@ -5994,7 +5994,7 @@
         <v>191.38950542463499</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5.96</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="15">
-        <v>191.39096281487664</v>
+        <v>191.39123608728153</v>
       </c>
       <c r="F137" s="15">
         <v>191.40490573534879</v>
@@ -6018,7 +6018,7 @@
         <v>191.39096281487664</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5.97</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="15">
-        <v>191.3925248642883</v>
+        <v>191.39212461574994</v>
       </c>
       <c r="F138" s="15">
         <v>191.40692260270234</v>
@@ -6042,7 +6042,7 @@
         <v>191.3925248642883</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5.98</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="15">
-        <v>191.3941985956958</v>
+        <v>191.3929908884208</v>
       </c>
       <c r="F139" s="15">
         <v>191.4089891622871</v>
@@ -6066,7 +6066,7 @@
         <v>191.3941985956958</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5.99</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="15">
-        <v>191.39599103192495</v>
+        <v>191.3938334001306</v>
       </c>
       <c r="F140" s="15">
         <v>191.41110643509626</v>
@@ -6090,7 +6090,7 @@
         <v>191.39599103192495</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="E141" s="15">
-        <v>191.39790919580159</v>
+        <v>191.39465064571587</v>
       </c>
       <c r="F141" s="15">
         <v>191.41327544212314</v>

--- a/examples/ex003.SplineFit.xlsx
+++ b/examples/ex003.SplineFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32261D-8376-4D20-BD00-970CC8E2CFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB94C1-815C-4DC7-888C-5F16FF15F97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
@@ -1417,307 +1417,307 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>191.306859824485</c:v>
+                  <c:v>191.29993879884339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.3062947967174</c:v>
+                  <c:v>191.30092500040874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191.30587710239263</c:v>
+                  <c:v>191.30191039522467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191.30560084604778</c:v>
+                  <c:v>191.30289497988323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191.30546013221999</c:v>
+                  <c:v>191.30387875097654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191.3054490654464</c:v>
+                  <c:v>191.30486170509664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191.30556175026408</c:v>
+                  <c:v>191.30584383883564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.30579229121014</c:v>
+                  <c:v>191.30682514878566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191.30613479282172</c:v>
+                  <c:v>191.30780563153877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191.30658335963594</c:v>
+                  <c:v>191.30878528368706</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>191.30713209618992</c:v>
+                  <c:v>191.30976410182259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>191.30777510702075</c:v>
+                  <c:v>191.3107420825375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>191.30850649666556</c:v>
+                  <c:v>191.31171922242385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>191.30932036966144</c:v>
+                  <c:v>191.31269551807372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>191.31021083054554</c:v>
+                  <c:v>191.3136709660792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191.31117198385496</c:v>
+                  <c:v>191.3146455630324</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>191.31219793412683</c:v>
+                  <c:v>191.31561930552542</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>191.31328278589825</c:v>
+                  <c:v>191.31659219015029</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>191.31442064370634</c:v>
+                  <c:v>191.31756421349917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>191.31560561208821</c:v>
+                  <c:v>191.31853537216409</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>191.31683179558098</c:v>
+                  <c:v>191.31950566273716</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>191.31809329872178</c:v>
+                  <c:v>191.32047508181049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>191.31938422604767</c:v>
+                  <c:v>191.32144362597614</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>191.32069868209584</c:v>
+                  <c:v>191.32241129182623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>191.32203077140335</c:v>
+                  <c:v>191.3233780759528</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>191.32337459850734</c:v>
+                  <c:v>191.32434397494799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>191.32472426794493</c:v>
+                  <c:v>191.32530898540386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>191.32607388425322</c:v>
+                  <c:v>191.32627310391251</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>191.32741755196935</c:v>
+                  <c:v>191.32723632706603</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>191.32874937563039</c:v>
+                  <c:v>191.32819865145652</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>191.3300634597735</c:v>
+                  <c:v>191.32916007367601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191.33135390893577</c:v>
+                  <c:v>191.33012059031665</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>191.33261482765431</c:v>
+                  <c:v>191.33108019797052</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>191.33384032046627</c:v>
+                  <c:v>191.33203889322971</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>191.33502488183873</c:v>
+                  <c:v>191.33299667268628</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>191.33616753917576</c:v>
+                  <c:v>191.33395353293236</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>191.3372702443566</c:v>
+                  <c:v>191.33490947055998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>191.33833499800184</c:v>
+                  <c:v>191.3358644821613</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>191.33936380073203</c:v>
+                  <c:v>191.33681856432835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>191.3403586531677</c:v>
+                  <c:v>191.33777171365327</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>191.34132155592945</c:v>
+                  <c:v>191.33872392672811</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>191.34225450963785</c:v>
+                  <c:v>191.33967520014497</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>191.34315951491345</c:v>
+                  <c:v>191.34062553049594</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>191.34403857237677</c:v>
+                  <c:v>191.3415749143731</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>191.34489368264846</c:v>
+                  <c:v>191.34252334836856</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>191.34572684634898</c:v>
+                  <c:v>191.34347082907439</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>191.34654006409897</c:v>
+                  <c:v>191.34441735308272</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>191.347335336519</c:v>
+                  <c:v>191.34536291698555</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>191.34811466422957</c:v>
+                  <c:v>191.34630751737507</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>191.34888004785125</c:v>
+                  <c:v>191.34725115084331</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>191.34963348800466</c:v>
+                  <c:v>191.34819381398236</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>191.35037698531031</c:v>
+                  <c:v>191.34913550338433</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>191.35111254038878</c:v>
+                  <c:v>191.35007621564131</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>191.35184215386064</c:v>
+                  <c:v>191.35101594734536</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>191.35256782634644</c:v>
+                  <c:v>191.35195469508861</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>191.35329155846674</c:v>
+                  <c:v>191.35289245546309</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>191.3540153508421</c:v>
+                  <c:v>191.35382922506096</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>191.3547412040931</c:v>
+                  <c:v>191.35476500047426</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>191.35547111884031</c:v>
+                  <c:v>191.3556997782951</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>191.35620709570426</c:v>
+                  <c:v>191.35663355511556</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>191.35695113530554</c:v>
+                  <c:v>191.35756632752773</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>191.35770523826466</c:v>
+                  <c:v>191.35849809212371</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>191.35847140520227</c:v>
+                  <c:v>191.35942884549559</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>191.35925163673886</c:v>
+                  <c:v>191.36035858423543</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>191.36004793349503</c:v>
+                  <c:v>191.36128730493533</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>191.36086229609131</c:v>
+                  <c:v>191.36221500418742</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>191.36169672514831</c:v>
+                  <c:v>191.36314167858373</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>191.3625531996459</c:v>
+                  <c:v>191.36406732471636</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>191.36343240012548</c:v>
+                  <c:v>191.36499193917743</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191.3643329945487</c:v>
+                  <c:v>191.36591551855901</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>191.36525347775211</c:v>
+                  <c:v>191.36683805945319</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>191.36619234457214</c:v>
+                  <c:v>191.36775955845206</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>191.36714808984536</c:v>
+                  <c:v>191.36868001214773</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>191.36811920840827</c:v>
+                  <c:v>191.36959941713224</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>191.36910419509738</c:v>
+                  <c:v>191.37051776999772</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>191.37010154474916</c:v>
+                  <c:v>191.37143506733625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191.3711097522002</c:v>
+                  <c:v>191.3723513057399</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>191.37212731228692</c:v>
+                  <c:v>191.37326648180078</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>191.3731527198459</c:v>
+                  <c:v>191.37418059211097</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>191.37418446971364</c:v>
+                  <c:v>191.37509363326257</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>191.37522105672662</c:v>
+                  <c:v>191.37600560184765</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>191.37626097572135</c:v>
+                  <c:v>191.37691649445833</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>191.37730272153439</c:v>
+                  <c:v>191.37782630768666</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>191.3783447890022</c:v>
+                  <c:v>191.37873503812474</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>191.37938567296129</c:v>
+                  <c:v>191.3796426823647</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>191.38042386824822</c:v>
+                  <c:v>191.38054923699858</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>191.38145786969946</c:v>
+                  <c:v>191.38145469861846</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>191.38248617215152</c:v>
+                  <c:v>191.38235906381647</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>191.3835072704409</c:v>
+                  <c:v>191.3832623291847</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>191.38451965940416</c:v>
+                  <c:v>191.3841644913152</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>191.38552183387776</c:v>
+                  <c:v>191.38506554680009</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>191.38651228869824</c:v>
+                  <c:v>191.38596549223143</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>191.3874895187021</c:v>
+                  <c:v>191.38686432420135</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>191.38845201872584</c:v>
+                  <c:v>191.38776203930189</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>191.389398283606</c:v>
+                  <c:v>191.38865863412519</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>191.39032680817905</c:v>
+                  <c:v>191.38955410526333</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>191.39123608728153</c:v>
+                  <c:v>191.39044844930834</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>191.39212461574994</c:v>
+                  <c:v>191.3913416628524</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>191.3929908884208</c:v>
+                  <c:v>191.39223374248752</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>191.3938334001306</c:v>
+                  <c:v>191.39312468480583</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>191.39465064571587</c:v>
+                  <c:v>191.39401448639939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,7 +3443,7 @@
   <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3685,7 +3685,7 @@
         <v>30</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="E41" s="15">
         <f t="array" ref="E41:E141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,E38,$A$41:$A$141)</f>
-        <v>191.306859824485</v>
+        <v>191.29993879884339</v>
       </c>
       <c r="F41" s="15">
         <f t="array" ref="F41:F141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,F38,$A$41:$A$141,D41:D141,I41:I42,J41:J42,K41:K42)</f>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="15">
-        <v>191.3062947967174</v>
+        <v>191.30092500040874</v>
       </c>
       <c r="F42" s="15">
         <v>191.28936466521</v>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="15">
-        <v>191.30587710239263</v>
+        <v>191.30191039522467</v>
       </c>
       <c r="F43" s="15">
         <v>191.29131649985069</v>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="15">
-        <v>191.30560084604778</v>
+        <v>191.30289497988323</v>
       </c>
       <c r="F44" s="15">
         <v>191.29322103236319</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="15">
-        <v>191.30546013221999</v>
+        <v>191.30387875097654</v>
       </c>
       <c r="F45" s="15">
         <v>191.29507928374076</v>
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="15">
-        <v>191.3054490654464</v>
+        <v>191.30486170509664</v>
       </c>
       <c r="F46" s="15">
         <v>191.2968922749767</v>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="15">
-        <v>191.30556175026408</v>
+        <v>191.30584383883564</v>
       </c>
       <c r="F47" s="15">
         <v>191.29866102706421</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="15">
-        <v>191.30579229121014</v>
+        <v>191.30682514878566</v>
       </c>
       <c r="F48" s="15">
         <v>191.30038656099657</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="15">
-        <v>191.30613479282172</v>
+        <v>191.30780563153877</v>
       </c>
       <c r="F49" s="15">
         <v>191.30206989776704</v>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="15">
-        <v>191.30658335963594</v>
+        <v>191.30878528368706</v>
       </c>
       <c r="F50" s="15">
         <v>191.30371205836889</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="15">
-        <v>191.30713209618992</v>
+        <v>191.30976410182259</v>
       </c>
       <c r="F51" s="15">
         <v>191.30531406379535</v>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="15">
-        <v>191.30777510702075</v>
+        <v>191.3107420825375</v>
       </c>
       <c r="F52" s="15">
         <v>191.30687693503967</v>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="15">
-        <v>191.30850649666556</v>
+        <v>191.31171922242385</v>
       </c>
       <c r="F53" s="15">
         <v>191.30840169309513</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="15">
-        <v>191.30932036966144</v>
+        <v>191.31269551807372</v>
       </c>
       <c r="F54" s="15">
         <v>191.30988935895499</v>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="15">
-        <v>191.31021083054554</v>
+        <v>191.3136709660792</v>
       </c>
       <c r="F55" s="15">
         <v>191.3113409536125</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="15">
-        <v>191.31117198385496</v>
+        <v>191.3146455630324</v>
       </c>
       <c r="F56" s="15">
         <v>191.3127574980609</v>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="15">
-        <v>191.31219793412683</v>
+        <v>191.31561930552542</v>
       </c>
       <c r="F57" s="15">
         <v>191.31414001329347</v>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="15">
-        <v>191.31328278589825</v>
+        <v>191.31659219015029</v>
       </c>
       <c r="F58" s="15">
         <v>191.31548952030343</v>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="15">
-        <v>191.31442064370634</v>
+        <v>191.31756421349917</v>
       </c>
       <c r="F59" s="15">
         <v>191.31680704008409</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="15">
-        <v>191.31560561208821</v>
+        <v>191.31853537216409</v>
       </c>
       <c r="F60" s="15">
         <v>191.31809359362865</v>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="15">
-        <v>191.31683179558098</v>
+        <v>191.31950566273716</v>
       </c>
       <c r="F61" s="15">
         <v>191.3193502019304</v>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="15">
-        <v>191.31809329872178</v>
+        <v>191.32047508181049</v>
       </c>
       <c r="F62" s="15">
         <v>191.3205778859826</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="15">
-        <v>191.31938422604767</v>
+        <v>191.32144362597614</v>
       </c>
       <c r="F63" s="15">
         <v>191.32177766677847</v>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="15">
-        <v>191.32069868209584</v>
+        <v>191.32241129182623</v>
       </c>
       <c r="F64" s="15">
         <v>191.32295056531132</v>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="15">
-        <v>191.32203077140335</v>
+        <v>191.3233780759528</v>
       </c>
       <c r="F65" s="15">
         <v>191.32409760257437</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="15">
-        <v>191.32337459850734</v>
+        <v>191.32434397494799</v>
       </c>
       <c r="F66" s="15">
         <v>191.3252197995609</v>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="15">
-        <v>191.32472426794493</v>
+        <v>191.32530898540386</v>
       </c>
       <c r="F67" s="15">
         <v>191.32631817726411</v>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="15">
-        <v>191.32607388425322</v>
+        <v>191.32627310391251</v>
       </c>
       <c r="F68" s="15">
         <v>191.32739375667734</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="15">
-        <v>191.32741755196935</v>
+        <v>191.32723632706603</v>
       </c>
       <c r="F69" s="15">
         <v>191.32844755879378</v>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="15">
-        <v>191.32874937563039</v>
+        <v>191.32819865145652</v>
       </c>
       <c r="F70" s="15">
         <v>191.32948060460672</v>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="15">
-        <v>191.3300634597735</v>
+        <v>191.32916007367601</v>
       </c>
       <c r="F71" s="15">
         <v>191.3304939151094</v>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="15">
-        <v>191.33135390893577</v>
+        <v>191.33012059031665</v>
       </c>
       <c r="F72" s="15">
         <v>191.33148851129508</v>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="15">
-        <v>191.33261482765431</v>
+        <v>191.33108019797052</v>
       </c>
       <c r="F73" s="15">
         <v>191.33246541415701</v>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="15">
-        <v>191.33384032046627</v>
+        <v>191.33203889322971</v>
       </c>
       <c r="F74" s="15">
         <v>191.33342564468848</v>
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="15">
-        <v>191.33502488183873</v>
+        <v>191.33299667268628</v>
       </c>
       <c r="F75" s="15">
         <v>191.3343702238827</v>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="15">
-        <v>191.33616753917576</v>
+        <v>191.33395353293236</v>
       </c>
       <c r="F76" s="15">
         <v>191.33530017273296</v>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="15">
-        <v>191.3372702443566</v>
+        <v>191.33490947055998</v>
       </c>
       <c r="F77" s="15">
         <v>191.33621651223251</v>
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="15">
-        <v>191.33833499800184</v>
+        <v>191.3358644821613</v>
       </c>
       <c r="F78" s="15">
         <v>191.33712026337457</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="15">
-        <v>191.33936380073203</v>
+        <v>191.33681856432835</v>
       </c>
       <c r="F79" s="15">
         <v>191.33801244715247</v>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="15">
-        <v>191.3403586531677</v>
+        <v>191.33777171365327</v>
       </c>
       <c r="F80" s="15">
         <v>191.3388940845594</v>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="15">
-        <v>191.34132155592945</v>
+        <v>191.33872392672811</v>
       </c>
       <c r="F81" s="15">
         <v>191.33976619658864</v>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="15">
-        <v>191.34225450963785</v>
+        <v>191.33967520014497</v>
       </c>
       <c r="F82" s="15">
         <v>191.34062980423343</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="15">
-        <v>191.34315951491345</v>
+        <v>191.34062553049594</v>
       </c>
       <c r="F83" s="15">
         <v>191.34148592848706</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="15">
-        <v>191.34403857237677</v>
+        <v>191.3415749143731</v>
       </c>
       <c r="F84" s="15">
         <v>191.34233559034277</v>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="15">
-        <v>191.34489368264846</v>
+        <v>191.34252334836856</v>
       </c>
       <c r="F85" s="15">
         <v>191.3431798107938</v>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="15">
-        <v>191.34572684634898</v>
+        <v>191.34347082907439</v>
       </c>
       <c r="F86" s="15">
         <v>191.34401961083344</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="15">
-        <v>191.34654006409897</v>
+        <v>191.34441735308272</v>
       </c>
       <c r="F87" s="15">
         <v>191.34485601145494</v>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="15">
-        <v>191.347335336519</v>
+        <v>191.34536291698555</v>
       </c>
       <c r="F88" s="15">
         <v>191.34569003365149</v>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="15">
-        <v>191.34811466422957</v>
+        <v>191.34630751737507</v>
       </c>
       <c r="F89" s="15">
         <v>191.34652269841644</v>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="15">
-        <v>191.34888004785125</v>
+        <v>191.34725115084331</v>
       </c>
       <c r="F90" s="15">
         <v>191.347355026743</v>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="15">
-        <v>191.34963348800466</v>
+        <v>191.34819381398236</v>
       </c>
       <c r="F91" s="15">
         <v>191.34818803962443</v>
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="15">
-        <v>191.35037698531031</v>
+        <v>191.34913550338433</v>
       </c>
       <c r="F92" s="15">
         <v>191.34902275805399</v>
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="15">
-        <v>191.35111254038878</v>
+        <v>191.35007621564131</v>
       </c>
       <c r="F93" s="15">
         <v>191.34986020302495</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="15">
-        <v>191.35184215386064</v>
+        <v>191.35101594734536</v>
       </c>
       <c r="F94" s="15">
         <v>191.35070139553054</v>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="15">
-        <v>191.35256782634644</v>
+        <v>191.35195469508861</v>
       </c>
       <c r="F95" s="15">
         <v>191.35154735656403</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="15">
-        <v>191.35329155846674</v>
+        <v>191.35289245546309</v>
       </c>
       <c r="F96" s="15">
         <v>191.35239910711866</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="15">
-        <v>191.3540153508421</v>
+        <v>191.35382922506096</v>
       </c>
       <c r="F97" s="15">
         <v>191.35325766818769</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="15">
-        <v>191.3547412040931</v>
+        <v>191.35476500047426</v>
       </c>
       <c r="F98" s="15">
         <v>191.35412406076443</v>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="15">
-        <v>191.35547111884031</v>
+        <v>191.3556997782951</v>
       </c>
       <c r="F99" s="15">
         <v>191.35499930584206</v>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="15">
-        <v>191.35620709570426</v>
+        <v>191.35663355511556</v>
       </c>
       <c r="F100" s="15">
         <v>191.35588442441389</v>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="15">
-        <v>191.35695113530554</v>
+        <v>191.35756632752773</v>
       </c>
       <c r="F101" s="15">
         <v>191.35678043747313</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="15">
-        <v>191.35770523826466</v>
+        <v>191.35849809212371</v>
       </c>
       <c r="F102" s="15">
         <v>191.35768836601309</v>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="15">
-        <v>191.35847140520227</v>
+        <v>191.35942884549559</v>
       </c>
       <c r="F103" s="15">
         <v>191.35860923102697</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="15">
-        <v>191.35925163673886</v>
+        <v>191.36035858423543</v>
       </c>
       <c r="F104" s="15">
         <v>191.35954405350807</v>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="15">
-        <v>191.36004793349503</v>
+        <v>191.36128730493533</v>
       </c>
       <c r="F105" s="15">
         <v>191.36049385444963</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="15">
-        <v>191.36086229609131</v>
+        <v>191.36221500418742</v>
       </c>
       <c r="F106" s="15">
         <v>191.36145965484491</v>
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="15">
-        <v>191.36169672514831</v>
+        <v>191.36314167858373</v>
       </c>
       <c r="F107" s="15">
         <v>191.36244247568717</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="15">
-        <v>191.3625531996459</v>
+        <v>191.36406732471636</v>
       </c>
       <c r="F108" s="15">
         <v>191.36344333796964</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="15">
-        <v>191.36343240012548</v>
+        <v>191.36499193917743</v>
       </c>
       <c r="F109" s="15">
         <v>191.3644632626856</v>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="15">
-        <v>191.3643329945487</v>
+        <v>191.36591551855901</v>
       </c>
       <c r="F110" s="15">
         <v>191.36550327082833</v>
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="15">
-        <v>191.36525347775211</v>
+        <v>191.36683805945319</v>
       </c>
       <c r="F111" s="15">
         <v>191.36656438339102</v>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="15">
-        <v>191.36619234457214</v>
+        <v>191.36775955845206</v>
       </c>
       <c r="F112" s="15">
         <v>191.36764762136698</v>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="15">
-        <v>191.36714808984536</v>
+        <v>191.36868001214773</v>
       </c>
       <c r="F113" s="15">
         <v>191.36875400574948</v>
@@ -5463,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="15">
-        <v>191.36811920840827</v>
+        <v>191.36959941713224</v>
       </c>
       <c r="F114" s="15">
         <v>191.36988455753172</v>
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="15">
-        <v>191.36910419509738</v>
+        <v>191.37051776999772</v>
       </c>
       <c r="F115" s="15">
         <v>191.371040297707</v>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="15">
-        <v>191.37010154474916</v>
+        <v>191.37143506733625</v>
       </c>
       <c r="F116" s="15">
         <v>191.37222224726852</v>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="15">
-        <v>191.3711097522002</v>
+        <v>191.3723513057399</v>
       </c>
       <c r="F117" s="15">
         <v>191.37343142720962</v>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="15">
-        <v>191.37212731228692</v>
+        <v>191.37326648180078</v>
       </c>
       <c r="F118" s="15">
         <v>191.37466885852351</v>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="15">
-        <v>191.3731527198459</v>
+        <v>191.37418059211097</v>
       </c>
       <c r="F119" s="15">
         <v>191.37593556220344</v>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="15">
-        <v>191.37418446971364</v>
+        <v>191.37509363326257</v>
       </c>
       <c r="F120" s="15">
         <v>191.37723255924266</v>
@@ -5625,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="15">
-        <v>191.37522105672662</v>
+        <v>191.37600560184765</v>
       </c>
       <c r="F121" s="15">
         <v>191.37856087063446</v>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="15">
-        <v>191.37626097572135</v>
+        <v>191.37691649445833</v>
       </c>
       <c r="F122" s="15">
         <v>191.37992151737205</v>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="15">
-        <v>191.37730272153439</v>
+        <v>191.37782630768666</v>
       </c>
       <c r="F123" s="15">
         <v>191.38131552044877</v>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="15">
-        <v>191.3783447890022</v>
+        <v>191.37873503812474</v>
       </c>
       <c r="F124" s="15">
         <v>191.38274390085778</v>
@@ -5721,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="15">
-        <v>191.37938567296129</v>
+        <v>191.3796426823647</v>
       </c>
       <c r="F125" s="15">
         <v>191.38420767959238</v>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="15">
-        <v>191.38042386824822</v>
+        <v>191.38054923699858</v>
       </c>
       <c r="F126" s="15">
         <v>191.38570787764584</v>
@@ -5769,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="15">
-        <v>191.38145786969946</v>
+        <v>191.38145469861846</v>
       </c>
       <c r="F127" s="15">
         <v>191.38724551601138</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="15">
-        <v>191.38248617215152</v>
+        <v>191.38235906381647</v>
       </c>
       <c r="F128" s="15">
         <v>191.3888216156823</v>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="15">
-        <v>191.3835072704409</v>
+        <v>191.3832623291847</v>
       </c>
       <c r="F129" s="15">
         <v>191.39043719765181</v>
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="15">
-        <v>191.38451965940416</v>
+        <v>191.3841644913152</v>
       </c>
       <c r="F130" s="15">
         <v>191.39209328291321</v>
@@ -5865,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="15">
-        <v>191.38552183387776</v>
+        <v>191.38506554680009</v>
       </c>
       <c r="F131" s="15">
         <v>191.39379089245972</v>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="15">
-        <v>191.38651228869824</v>
+        <v>191.38596549223143</v>
       </c>
       <c r="F132" s="15">
         <v>191.39553104728461</v>
@@ -5913,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="15">
-        <v>191.3874895187021</v>
+        <v>191.38686432420135</v>
       </c>
       <c r="F133" s="15">
         <v>191.39731476838114</v>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="15">
-        <v>191.38845201872584</v>
+        <v>191.38776203930189</v>
       </c>
       <c r="F134" s="15">
         <v>191.39914307674258</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="15">
-        <v>191.389398283606</v>
+        <v>191.38865863412519</v>
       </c>
       <c r="F135" s="15">
         <v>191.40101699336216</v>
@@ -5985,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="15">
-        <v>191.39032680817905</v>
+        <v>191.38955410526333</v>
       </c>
       <c r="F136" s="15">
         <v>191.40293753923314</v>
@@ -6009,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="15">
-        <v>191.39123608728153</v>
+        <v>191.39044844930834</v>
       </c>
       <c r="F137" s="15">
         <v>191.40490573534879</v>
@@ -6033,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="15">
-        <v>191.39212461574994</v>
+        <v>191.3913416628524</v>
       </c>
       <c r="F138" s="15">
         <v>191.40692260270234</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="15">
-        <v>191.3929908884208</v>
+        <v>191.39223374248752</v>
       </c>
       <c r="F139" s="15">
         <v>191.4089891622871</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="15">
-        <v>191.3938334001306</v>
+        <v>191.39312468480583</v>
       </c>
       <c r="F140" s="15">
         <v>191.41110643509626</v>
@@ -6105,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="E141" s="15">
-        <v>191.39465064571587</v>
+        <v>191.39401448639939</v>
       </c>
       <c r="F141" s="15">
         <v>191.41327544212314</v>

--- a/examples/ex003.SplineFit.xlsx
+++ b/examples/ex003.SplineFit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB94C1-815C-4DC7-888C-5F16FF15F97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA4F67-8778-4AE7-BBD7-96BE3F446B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
@@ -3443,7 +3443,7 @@
   <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex003.SplineFit.xlsx
+++ b/examples/ex003.SplineFit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA4F67-8778-4AE7-BBD7-96BE3F446B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F3199-ADF4-4F28-B02F-872BF0EF22E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
@@ -3442,8 +3442,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.26</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
